--- a/data/toparse.xlsx
+++ b/data/toparse.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccrespo/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccrespo/work/src/github.com/crezam/xml-parser/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="3840" yWindow="3340" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -35,25 +35,22 @@
     <t>age</t>
   </si>
   <si>
-    <t>yudith</t>
-  </si>
-  <si>
-    <t>vazquez</t>
-  </si>
-  <si>
-    <t>raignier</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>pikachu</t>
+  </si>
+  <si>
+    <t>poke</t>
+  </si>
+  <si>
+    <t>ninja</t>
+  </si>
+  <si>
+    <t>mon</t>
   </si>
 </sst>
 </file>
@@ -371,7 +368,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:T1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -387,35 +384,35 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
